--- a/biology/Médecine/Biais_de_vérification/Biais_de_vérification.xlsx
+++ b/biology/Médecine/Biais_de_vérification/Biais_de_vérification.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Biais_de_v%C3%A9rification</t>
+          <t>Biais_de_vérification</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le biais de vérification est un biais statistique, rencontré lors d'étude de confirmation, dans lequel les résultats d'un test de diagnostic influent sur l'utilisation ou non de la procédure de vérification du résultat[1],[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le biais de vérification est un biais statistique, rencontré lors d'étude de confirmation, dans lequel les résultats d'un test de diagnostic influent sur l'utilisation ou non de la procédure de vérification du résultat.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Biais_de_v%C3%A9rification</t>
+          <t>Biais_de_vérification</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
